--- a/biology/Médecine/Pierre_Butini/Pierre_Butini.xlsx
+++ b/biology/Médecine/Pierre_Butini/Pierre_Butini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Butini, né le 23 mars 1759 à Genève (originaire du même lieu) et mort le 24 novembre 1838 dans la même ville, est un médecin genevois puis suisse.
 </t>
@@ -513,16 +525,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et famille
-Pierre Butini naît le 23 mars 1759 à Genève. Il en est également originaire[1].
-Son père, Jean-Antoine Butini, est médecin[1].
-Il épouse Jeanne-Pernette Bardin[1]. La pianiste et compositrice Caroline Boissier-Butini est leur fille[2].
-Études
-Après s'être signalé par des travaux en sciences naturelles, il fait des études de médecine à l'université de Montpellier, où il est reçu docteur en 1783[1].
-Parcours professionnel
-En dépit d'une absence presque complète de publications, sa réputation de praticien très habile dépasse largement les frontières de Genève. Les têtes couronnées de toute l'Europe viennent le consulter et il devient membre de nombreuses sociétés savantes[1].
-Mort
-Il meurt le 24 novembre 1838 à Genève, à l'âge de 79 ans[1].
+          <t>Origines et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Butini naît le 23 mars 1759 à Genève. Il en est également originaire.
+Son père, Jean-Antoine Butini, est médecin.
+Il épouse Jeanne-Pernette Bardin. La pianiste et compositrice Caroline Boissier-Butini est leur fille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être signalé par des travaux en sciences naturelles, il fait des études de médecine à l'université de Montpellier, où il est reçu docteur en 1783.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dépit d'une absence presque complète de publications, sa réputation de praticien très habile dépasse largement les frontières de Genève. Les têtes couronnées de toute l'Europe viennent le consulter et il devient membre de nombreuses sociétés savantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Butini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 24 novembre 1838 à Genève, à l'âge de 79 ans.
 </t>
         </is>
       </c>
